--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F03EA6-9B01-4A55-BADA-FE3AE24ACE25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A92DD-94D3-4468-A6F7-63649D6D2B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{D88BBFC7-3B3E-4168-956D-9FF57319321D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
@@ -236,12 +236,108 @@
   <si>
     <t>https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
   </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>前後関係, 文脈, 脈絡, (状況)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンミャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミャクラク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ejje.weblio.jp/content/context</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RequestDispatcherメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
+  </si>
+  <si>
+    <t>発送係</t>
+    <rPh sb="0" eb="2">
+      <t>ハッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>library directory</t>
+  </si>
+  <si>
+    <t>なんかフォルダとか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無効にする</t>
+  </si>
+  <si>
+    <t>enable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有効にする</t>
+  </si>
+  <si>
+    <t>redirect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送</t>
+  </si>
+  <si>
+    <t>コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +383,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -352,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +482,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +805,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -941,21 +1048,33 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -963,9 +1082,15 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
     </row>
@@ -974,10 +1099,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -985,8 +1118,12 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="7"/>
       <c r="F18" s="2"/>
@@ -996,8 +1133,12 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="7"/>
       <c r="F19" s="2"/>
@@ -1007,9 +1148,15 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
     </row>
@@ -1388,8 +1535,9 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" xr:uid="{E1BD928E-A5BD-4BA4-80BF-5C0034367A0C}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{40EE6AE0-3991-4721-8CEA-F5FD17ACC400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A92DD-94D3-4468-A6F7-63649D6D2B78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA41BE-6E73-4CA6-818B-47E034E89BEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{D88BBFC7-3B3E-4168-956D-9FF57319321D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
@@ -331,6 +331,75 @@
   </si>
   <si>
     <t>コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
+  </si>
+  <si>
+    <t>環境</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>jreのe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parseIntとかparseDoubleとか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>デプロイ</t>
+  </si>
+  <si>
+    <t>配備</t>
+    <rPh sb="0" eb="2">
+      <t>ハイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
+    <rPh sb="8" eb="10">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハイビ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>サダ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書籍「JSP&amp;サーブレット」付録D</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -804,8 +873,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E5FAA-8259-4270-9308-020263654DE9}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="A1:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1165,10 +1236,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -1176,10 +1253,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -1187,8 +1272,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="7"/>
       <c r="F23" s="2"/>
@@ -1198,11 +1287,21 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
@@ -1524,7 +1623,7 @@
       <c r="F57" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{DD851AA0-3926-45AE-9039-14D73B9F1B1A}">
+  <autoFilter ref="A1:C44" xr:uid="{DD851AA0-3926-45AE-9039-14D73B9F1B1A}">
     <sortState ref="A2:C3">
       <sortCondition ref="B1"/>
     </sortState>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FA41BE-6E73-4CA6-818B-47E034E89BEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E39C5-CBE8-4EA9-8544-BE2CC7BDE945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{D88BBFC7-3B3E-4168-956D-9FF57319321D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
@@ -298,10 +298,6 @@
     <t>library directory</t>
   </si>
   <si>
-    <t>なんかフォルダとか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
   </si>
   <si>
@@ -400,6 +396,194 @@
       <t>フロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>要求する</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>含める</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Allow</t>
+  </si>
+  <si>
+    <t>許可する</t>
+  </si>
+  <si>
+    <t>libディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭にくっつく文字のこと、接頭辞</t>
+    <rPh sb="12" eb="15">
+      <t>セットウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>末尾にくっつく文字のこと、</t>
+    <rPh sb="0" eb="2">
+      <t>マツビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>さもないと</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクティブ</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>プログラミング言語の一部の構成要素を指す</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
+    <rPh sb="16" eb="18">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>variable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮に</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>スウガク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javaScript変数宣言、ブロック単位のスコープ</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センゲン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>javaScript変数宣言、関数単位のスコープ、var</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>変えます</t>
+  </si>
+  <si>
+    <t>SQL: ALTER TABLE...</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>実在、存在</t>
+    <rPh sb="0" eb="2">
+      <t>ジツザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>反応する</t>
   </si>
 </sst>
 </file>
@@ -525,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,15 +717,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -554,6 +729,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,12 +1061,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E5FAA-8259-4270-9308-020263654DE9}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="A1:F44"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -886,7 +1076,7 @@
     <col min="5" max="5" width="76.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -899,507 +1089,673 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A44" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B31" si="1">PROPER(G2)</f>
+        <v xml:space="preserve"> Allow</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Accept</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7" t="s">
+      <c r="B4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Attribute</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Concurrent</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Confirm</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A44" si="0">ROW()-1</f>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Conflict</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Context</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Definition</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Deploy</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Deploy</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Directive</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Disable</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Dispatcher</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Enable</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Environment</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Executes</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Forward</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Include</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Library Directory</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Modify</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Otherwise</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Parse</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Parse</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Prepared</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Redirect</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Register</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Require</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Wildcard</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="D33" s="2"/>
-      <c r="E33" s="7"/>
+      <c r="E33" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -1407,10 +1763,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
+      <c r="E34" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -1418,10 +1780,14 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -1429,10 +1795,14 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -1440,10 +1810,13 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="2" t="str">
+        <f t="shared" ref="B36:B44" si="2">PROPER(G37)</f>
+        <v/>
+      </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -1451,10 +1824,13 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="7"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -1462,10 +1838,13 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="7"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -1473,10 +1852,13 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="7"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -1484,10 +1866,13 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -1495,10 +1880,13 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="7"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -1506,10 +1894,13 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="7"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -1517,109 +1908,152 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="7"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
+      <c r="B45" s="2" t="str">
+        <f t="shared" ref="B45:B57" si="3">PROPER(G45)</f>
+        <v/>
+      </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="7"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="7"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="7"/>
+      <c r="E48" s="4"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="7"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="7"/>
+      <c r="E50" s="4"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="7"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="4"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="4"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="7"/>
+      <c r="E54" s="4"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="7"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="7"/>
+      <c r="E56" s="4"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F57" s="2"/>
     </row>
   </sheetData>
@@ -1628,13 +2062,13 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A1:C1">
-    <sortCondition ref="B1"/>
+  <sortState ref="A3:G44">
+    <sortCondition ref="G2:G44"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{E1BD928E-A5BD-4BA4-80BF-5C0034367A0C}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{40EE6AE0-3991-4721-8CEA-F5FD17ACC400}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{E1BD928E-A5BD-4BA4-80BF-5C0034367A0C}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{40EE6AE0-3991-4721-8CEA-F5FD17ACC400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989E39C5-CBE8-4EA9-8544-BE2CC7BDE945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5932F-F0C0-48F5-96C8-6320337F1BD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{D88BBFC7-3B3E-4168-956D-9FF57319321D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="翻訳＆解説" sheetId="1" r:id="rId1"/>
+    <sheet name="アルファベット表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'翻訳＆解説'!$A$1:$C$44</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
   <si>
     <t>英語</t>
     <rPh sb="0" eb="2">
@@ -584,6 +585,31 @@
   </si>
   <si>
     <t>反応する</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>気泡</t>
+    <rPh sb="0" eb="2">
+      <t>キホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPNのn(javascript object notation)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -753,6 +779,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF24C4CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -762,6 +793,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="http://livedoor.blogimg.jp/kounaientiryou-kateikyousi/imgs/6/c/6c884021.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7C7968-DB2C-4E59-9942-E9B4AB86C1D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="3286124" cy="4202957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1061,12 +1158,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E5FAA-8259-4270-9308-020263654DE9}">
+  <sheetPr>
+    <tabColor rgb="FF24C4CC"/>
+  </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1741,7 +1841,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1758,7 +1858,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1775,7 +1875,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1790,7 +1890,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1805,35 +1905,45 @@
       <c r="E36" s="4"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f t="shared" ref="B36:B44" si="2">PROPER(G37)</f>
-        <v/>
-      </c>
-      <c r="C37" s="2"/>
+        <f t="shared" ref="B37:B44" si="2">PROPER(G37)</f>
+        <v>Alias</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1847,7 +1957,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1861,7 +1971,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1875,7 +1985,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1889,7 +1999,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1903,7 +2013,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1917,7 +2027,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="str">
         <f t="shared" ref="B45:B57" si="3">PROPER(G45)</f>
@@ -1928,7 +2038,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1939,7 +2049,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="str">
         <f t="shared" si="3"/>
@@ -1950,7 +2060,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2073,4 +2183,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D568D82-86CB-487F-B9AD-AD0CD3E9093D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{FD8EF144-DED9-4563-A12B-6A56E03164E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9CD462-2F00-4DC3-A41E-4B8DB7E1A4F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'翻訳＆解説'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
   <si>
     <t>No</t>
   </si>
@@ -477,6 +476,20 @@
   </si>
   <si>
     <t>built-in-object</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>defined</t>
+  </si>
+  <si>
+    <t>定義された</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>⇔undefined</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1136,7 +1149,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1939,19 +1952,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
-      <c r="B45" s="3" t="str">
-        <f t="shared" ref="B45:B57" si="2">PROPER(G45)</f>
-        <v/>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B45:B57" si="2">PROPER(G46)</f>
         <v/>
       </c>
       <c r="C46" s="3"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9CD462-2F00-4DC3-A41E-4B8DB7E1A4F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D292D97F-2F0C-45C4-98FE-C0CDE2D69C92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
   <si>
     <t>No</t>
   </si>
@@ -491,6 +491,41 @@
   <si>
     <t>⇔undefined</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>実装済み</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>除去する</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>分布、配布形態</t>
+    <rPh sb="3" eb="5">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Linaxディストリビューション</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>外部</t>
   </si>
 </sst>
 </file>
@@ -1145,11 +1180,11 @@
   <sheetPr>
     <tabColor rgb="FF24C4CC"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1884,7 +1919,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
-        <f t="shared" ref="A41:A44" si="1">ROW()-1</f>
+        <f t="shared" ref="A41:A104" si="1">ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -1951,7 +1986,10 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
+      <c r="A45" s="3">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>128</v>
       </c>
@@ -1965,53 +2003,74 @@
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3" t="str">
-        <f t="shared" ref="B45:B57" si="2">PROPER(G46)</f>
-        <v/>
-      </c>
-      <c r="C46" s="3"/>
+      <c r="A46" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C47" s="3"/>
+      <c r="A47" s="3">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C48" s="3"/>
+      <c r="A48" s="3">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="A49" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B46:B57" si="2">PROPER(G50)</f>
         <v/>
       </c>
       <c r="C50" s="3"/>
@@ -2020,7 +2079,10 @@
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
       <c r="B51" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2031,7 +2093,10 @@
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="B52" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2042,7 +2107,10 @@
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
       <c r="B53" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2053,7 +2121,10 @@
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
       <c r="B54" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2064,7 +2135,10 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="B55" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2075,7 +2149,10 @@
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
       <c r="B56" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2086,11 +2163,441 @@
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
       <c r="B57" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="3">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="3">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="3">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="3">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="3">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="3">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="3">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="3">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="3">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="3">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="3">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="3">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="3">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="3">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="3">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="3">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="3">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="3">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="3">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="3">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="3">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="3">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="3">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="3">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="3">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" s="3">
+        <f t="shared" ref="A105:A128" si="3">ROW()-1</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="3">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" s="3">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" s="3">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" s="3">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A110" s="3">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A111" s="3">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A112" s="3">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A113" s="3">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A114" s="3">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A115" s="3">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A116" s="3">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{25947F56-4F3F-4C5E-ACD3-4A1DD474FAE4}"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D292D97F-2F0C-45C4-98FE-C0CDE2D69C92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA16D31-E038-4CE0-83E1-750A5E3BB814}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
   <si>
     <t>No</t>
   </si>
@@ -526,6 +526,64 @@
   </si>
   <si>
     <t>外部</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>提出する</t>
+  </si>
+  <si>
+    <t>HTML属性</t>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>formの中身をサーバーに送信</t>
+    <rPh sb="5" eb="7">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>絶対の</t>
+  </si>
+  <si>
+    <t>CSSの値</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>protocol</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>規約</t>
+    <rPh sb="0" eb="2">
+      <t>キヤク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>http,file,ex...</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>asynchronous</t>
+  </si>
+  <si>
+    <t>非同期</t>
+  </si>
+  <si>
+    <t>AjsxのA</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -679,7 +737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,6 +802,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,8 +1244,8 @@
   <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2069,13 +2130,18 @@
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="str">
-        <f t="shared" ref="B46:B57" si="2">PROPER(G50)</f>
-        <v/>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -2083,13 +2149,16 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -2097,13 +2166,16 @@
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>148</v>
+      </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
+      <c r="E52" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -2111,13 +2183,16 @@
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2126,7 +2201,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B50:B57" si="2">PROPER(G54)</f>
         <v/>
       </c>
       <c r="C54" s="3"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA16D31-E038-4CE0-83E1-750A5E3BB814}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C213B-3790-4C88-8C39-1636D73BA166}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
   <si>
     <t>No</t>
   </si>
@@ -584,6 +584,12 @@
   <si>
     <t>AjsxのA</t>
     <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>進捗</t>
+  </si>
+  <si>
+    <t>progress</t>
   </si>
 </sst>
 </file>
@@ -1244,8 +1250,8 @@
   <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2200,11 +2206,12 @@
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="str">
-        <f t="shared" ref="B50:B57" si="2">PROPER(G54)</f>
-        <v/>
-      </c>
-      <c r="C54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
       <c r="F54" s="3"/>
@@ -2215,7 +2222,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B54:B57" si="2">PROPER(G55)</f>
         <v/>
       </c>
       <c r="C55" s="3"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158C213B-3790-4C88-8C39-1636D73BA166}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2081C2E0-5599-41E3-8858-71A39A4728E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="162">
   <si>
     <t>No</t>
   </si>
@@ -590,6 +590,39 @@
   </si>
   <si>
     <t>progress</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>検出</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>定義する</t>
+  </si>
+  <si>
+    <t>mount</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Vue.js</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>配置する要素とアプリケーションの紐づけ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -1247,11 +1280,11 @@
   <sheetPr>
     <tabColor rgb="FF24C4CC"/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2221,11 +2254,12 @@
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="str">
-        <f t="shared" ref="B54:B57" si="2">PROPER(G55)</f>
-        <v/>
-      </c>
-      <c r="C55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
       <c r="F55" s="3"/>
@@ -2235,451 +2269,1128 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="C56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="4">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="4">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="4">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="4">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="4">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="4">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="4">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="4">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="4">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="4">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="4">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="4">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="4">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="4">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="4">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="4">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="4">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="4">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="4">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="4">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="4">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="4">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="4">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="4">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="4">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="4">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="4">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="4">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="4">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="4">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="4">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="4">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="4">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="4">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="4">
+        <f t="shared" ref="A105:A128" si="2">ROW()-1</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="4">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="3">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="3">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="3">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="3">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="3">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A66" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A69" s="3">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A70" s="3">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A71" s="3">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" s="3">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A77" s="3">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A78" s="3">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A79" s="3">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A83" s="3">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A85" s="3">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A86" s="3">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A87" s="3">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88" s="3">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A89" s="3">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A90" s="3">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A91" s="3">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A92" s="3">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A93" s="3">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A94" s="3">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A95" s="3">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A96" s="3">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A97" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A98" s="3">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99" s="3">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A100" s="3">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A101" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A102" s="3">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A103" s="3">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A104" s="3">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A105" s="3">
-        <f t="shared" ref="A105:A128" si="3">ROW()-1</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A106" s="3">
-        <f t="shared" si="3"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A107" s="3">
-        <f t="shared" si="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="4">
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A108" s="3">
-        <f t="shared" si="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="4">
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3">
-        <f t="shared" si="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="4">
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3">
-        <f t="shared" si="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="4">
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A111" s="3">
-        <f t="shared" si="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="4">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A112" s="3">
-        <f t="shared" si="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="4">
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A113" s="3">
-        <f t="shared" si="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="4">
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A114" s="3">
-        <f t="shared" si="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="4">
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
-        <f t="shared" si="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="4">
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
-        <f t="shared" si="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="4">
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
-        <f t="shared" si="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="4">
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <f t="shared" si="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="4">
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <f t="shared" si="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <f t="shared" si="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <f t="shared" si="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <f t="shared" si="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <f t="shared" si="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <f t="shared" si="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <f t="shared" si="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <f t="shared" si="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <f t="shared" si="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="4">
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <f t="shared" si="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="4">
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{25947F56-4F3F-4C5E-ACD3-4A1DD474FAE4}"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="168">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -538,6 +538,15 @@
   </si>
   <si>
     <t xml:space="preserve">editer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTMLタグ</t>
   </si>
 </sst>
 </file>
@@ -898,9 +907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,7 +923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3135240" cy="4201920"/>
+          <a:ext cx="3137400" cy="4201560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -940,16 +949,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E59" activeCellId="0" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1969,15 +1978,21 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>58</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="F59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3100,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.39"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937302FE-635A-4CF4-9DDA-A8EA0A3CB9DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="翻訳＆解説" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="アルファベット表" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="翻訳＆解説" sheetId="1" r:id="rId1"/>
+    <sheet name="アルファベット表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'翻訳＆解説'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'翻訳＆解説'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,129 +34,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="168">
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本語(意味)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解説</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どこで使うの？ ex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参考</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>日本語(意味)</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>どこで使うの？ ex.</t>
+  </si>
+  <si>
+    <t>参考</t>
   </si>
   <si>
     <t xml:space="preserve"> Allow</t>
   </si>
   <si>
-    <t xml:space="preserve">許可する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受け入れる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エイリアス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変えます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL: ALTER TABLE...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assert(Assertion)</t>
+    <t>許可する</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>受け入れる</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+  </si>
+  <si>
+    <t>ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>変えます</t>
+  </si>
+  <si>
+    <t>SQL: ALTER TABLE...</t>
+  </si>
+  <si>
+    <t>Assert(Assertion)</t>
   </si>
   <si>
     <t xml:space="preserve">表明、断言、主張 </t>
   </si>
   <si>
-    <t xml:space="preserve">プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setAttribute, getAttributeとか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド制御</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンフリクト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">競合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前後関係, 文脈, 脈絡, (状況)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ejje.weblio.jp/content/context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カラム定義とか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デプロイ(配置する、展開する)</t>
+    <t>プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>setAttribute, getAttributeとか</t>
+  </si>
+  <si>
+    <t>concurrent</t>
+  </si>
+  <si>
+    <t>同時</t>
+  </si>
+  <si>
+    <t>スレッド制御</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>確認する</t>
+  </si>
+  <si>
+    <t>メソッド名</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>コンフリクト</t>
+  </si>
+  <si>
+    <t>競合</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>前後関係, 文脈, 脈絡, (状況)</t>
+  </si>
+  <si>
+    <t>https://ejje.weblio.jp/content/context</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>カラム定義とか？</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>デプロイ(配置する、展開する)</t>
   </si>
   <si>
     <r>
@@ -157,7 +167,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Web</t>
+      <t>Web</t>
     </r>
     <r>
       <rPr>
@@ -167,396 +177,411 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">アプリケーションをシステムを利用可能な状態にすること</t>
+      <t>アプリケーションをシステムを利用可能な状態にすること</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デプロイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍「JSP&amp;サーブレット」付録D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディレクティブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラミング言語の一部の構成要素を指す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無効にする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispatcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発送係</t>
-  </si>
-  <si>
-    <t xml:space="preserve">処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有効にする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実在、存在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">環境</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jreのe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">転送</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestDispatcherメソッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含める</t>
+    <t>https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>デプロイ</t>
+  </si>
+  <si>
+    <t>配備</t>
+  </si>
+  <si>
+    <t>eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
+  </si>
+  <si>
+    <t>書籍「JSP&amp;サーブレット」付録D</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>ディレクティブ</t>
+  </si>
+  <si>
+    <t>プログラミング言語の一部の構成要素を指す</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>無効にする</t>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+  </si>
+  <si>
+    <t>発送係</t>
+  </si>
+  <si>
+    <t>処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>有効にする</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>実在、存在</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>環境</t>
+  </si>
+  <si>
+    <t>jreのe</t>
+  </si>
+  <si>
+    <t>Executes</t>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>.exe</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>転送</t>
+  </si>
+  <si>
+    <t>RequestDispatcherメソッド</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>含める</t>
   </si>
   <si>
     <t xml:space="preserve">let </t>
   </si>
   <si>
-    <t xml:space="preserve">仮に</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javaScript変数宣言、ブロック単位のスコープ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libディレクトリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変更する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気泡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSPNのn(javascript object notation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さもないと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解析する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parseIntとかparseDoubleとか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">準備された</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">約束する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">反応する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">require</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要求する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javaScript変数宣言、関数単位のスコープ、var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワイルドカード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てのパターンにマッチする文字列のこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頭にくっつく文字のこと、接頭辞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">末尾にくっつく文字のこと、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptで変数の値が未定義であることを表す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頭上,間接費</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ある処理を行うために間接的にかかってしまうコスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厳格な</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptのsterictモードで使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">built-in-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptの組み込みオブジェクト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義された</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⇔undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実装済み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除去する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分布、配布形態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linaxディストリビューション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提出する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formの中身をサーバーに送信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絶対の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSSの値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">規約</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http,file,ex...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asynchronous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AjsxのA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">進捗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配置する要素とアプリケーションの紐づけ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分割</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTMLタグ</t>
+    <t>仮に</t>
+  </si>
+  <si>
+    <t>変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
+  </si>
+  <si>
+    <t>javaScript変数宣言、ブロック単位のスコープ</t>
+  </si>
+  <si>
+    <t>https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
+  </si>
+  <si>
+    <t>library directory</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
+  </si>
+  <si>
+    <t>libディレクトリ</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>変更する</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>気泡</t>
+  </si>
+  <si>
+    <t>JSPNのn(javascript object notation)</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>さもないと</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>解析する</t>
+  </si>
+  <si>
+    <t>パース</t>
+  </si>
+  <si>
+    <t>parseIntとかparseDoubleとか</t>
+  </si>
+  <si>
+    <t>Prepared</t>
+  </si>
+  <si>
+    <t>準備された</t>
+  </si>
+  <si>
+    <t>PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>約束する</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>反応する</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>要求する</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>変数</t>
+  </si>
+  <si>
+    <t>javaScript変数宣言、関数単位のスコープ、var</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>ワイルドカード</t>
+  </si>
+  <si>
+    <t>全てのパターンにマッチする文字列のこと</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>頭にくっつく文字のこと、接頭辞</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>末尾にくっつく文字のこと、</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>未定義</t>
+  </si>
+  <si>
+    <t>javascriptで変数の値が未定義であることを表す</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>頭上,間接費</t>
+  </si>
+  <si>
+    <t>ある処理を行うために間接的にかかってしまうコスト</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>厳格な</t>
+  </si>
+  <si>
+    <t>javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
+  </si>
+  <si>
+    <t>javascriptのsterictモードで使用</t>
+  </si>
+  <si>
+    <t>built-in-object</t>
+  </si>
+  <si>
+    <t>javascriptの組み込みオブジェクト</t>
+  </si>
+  <si>
+    <t>defined</t>
+  </si>
+  <si>
+    <t>定義された</t>
+  </si>
+  <si>
+    <t>⇔undefined</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>実装済み</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>除去する</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>分布、配布形態</t>
+  </si>
+  <si>
+    <t>Linaxディストリビューション</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>外部</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>提出する</t>
+  </si>
+  <si>
+    <t>formの中身をサーバーに送信</t>
+  </si>
+  <si>
+    <t>HTML属性</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>絶対の</t>
+  </si>
+  <si>
+    <t>CSSの値</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>規約</t>
+  </si>
+  <si>
+    <t>http,file,ex...</t>
+  </si>
+  <si>
+    <t>asynchronous</t>
+  </si>
+  <si>
+    <t>非同期</t>
+  </si>
+  <si>
+    <t>AjsxのA</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>進捗</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>検出</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>定義する</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>配置する要素とアプリケーションの紐づけ</t>
+  </si>
+  <si>
+    <t>Vue.js</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>編集する</t>
+  </si>
+  <si>
+    <t>editer</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>HTMLタグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roaming </t>
+  </si>
+  <si>
+    <t>携帯電話やPHS、またはインターネット接続サービス等において、事業者間の提携により、利用者が契約しているサービス事業者のサービスエリア外であっても、提携先の事業者のエリア内にあれば、元の事業者と同様のサービスを利用できることをいう。</t>
+  </si>
+  <si>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>遷移</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>不透明度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,25 +590,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="游ゴシック"/>
@@ -653,6 +660,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -669,166 +688,139 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -887,17 +879,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF252525"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -913,11 +917,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="図 1" descr=""/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -938,30 +948,324 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF24C4CC"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.39"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1"/>
+    <col min="6" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,9 +1286,9 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -998,9 +1302,9 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1014,9 +1318,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1032,9 +1336,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1050,9 +1354,9 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1070,9 +1374,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1088,9 +1392,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1106,9 +1410,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1124,9 +1428,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1144,9 +1448,9 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1162,9 +1466,9 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1180,9 +1484,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1200,9 +1504,9 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1222,9 +1526,9 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1242,9 +1546,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1258,9 +1562,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1276,9 +1580,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1292,9 +1596,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1308,9 +1612,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1326,9 +1630,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1346,9 +1650,9 @@
       <c r="F21" s="4"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1364,9 +1668,9 @@
       <c r="F22" s="4"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1380,9 +1684,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1402,9 +1706,9 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1422,9 +1726,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1440,9 +1744,9 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1458,9 +1762,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1476,9 +1780,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1494,9 +1798,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1514,9 +1818,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1532,9 +1836,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1548,9 +1852,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1564,9 +1868,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1582,9 +1886,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1598,9 +1902,9 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1614,9 +1918,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1632,9 +1936,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1650,9 +1954,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -1666,9 +1970,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1682,9 +1986,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1699,9 +2003,9 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -1716,9 +2020,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1735,9 +2039,9 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1750,9 +2054,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1767,9 +2071,9 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1782,9 +2086,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1797,9 +2101,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1814,9 +2118,9 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1829,9 +2133,9 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1848,9 +2152,9 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1865,9 +2169,9 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1882,9 +2186,9 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1899,9 +2203,9 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1914,9 +2218,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -1929,9 +2233,9 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -1944,9 +2248,9 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -1961,9 +2265,9 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -1978,9 +2282,9 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1995,42 +2299,54 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="5">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4"/>
@@ -2039,9 +2355,9 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="5">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4"/>
@@ -2050,9 +2366,9 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
@@ -2061,9 +2377,9 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
+        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="4"/>
@@ -2072,9 +2388,9 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
@@ -2083,9 +2399,9 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
@@ -2094,9 +2410,9 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
@@ -2105,9 +2421,9 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
@@ -2116,9 +2432,9 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
@@ -2127,9 +2443,9 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
@@ -2138,9 +2454,9 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="5">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
@@ -2149,9 +2465,9 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="5">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="4"/>
@@ -2160,9 +2476,9 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="4"/>
@@ -2171,9 +2487,9 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="4"/>
@@ -2182,9 +2498,9 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="4"/>
@@ -2193,9 +2509,9 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="4"/>
@@ -2204,9 +2520,9 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="4"/>
@@ -2215,9 +2531,9 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="4"/>
@@ -2226,9 +2542,9 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="4"/>
@@ -2237,9 +2553,9 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="4"/>
@@ -2248,9 +2564,9 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="5">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="4"/>
@@ -2259,9 +2575,9 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="5">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="4"/>
@@ -2270,9 +2586,9 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="5">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="4"/>
@@ -2281,9 +2597,9 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="5">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="4"/>
@@ -2292,9 +2608,9 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="5">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="4"/>
@@ -2303,9 +2619,9 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="5">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="4"/>
@@ -2314,9 +2630,9 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="5">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="4"/>
@@ -2325,9 +2641,9 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="5">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="4"/>
@@ -2336,9 +2652,9 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="5">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="4"/>
@@ -2347,9 +2663,9 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="5">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="4"/>
@@ -2358,9 +2674,9 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="5">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="4"/>
@@ -2369,9 +2685,9 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="5">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="4"/>
@@ -2380,9 +2696,9 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="5">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="4"/>
@@ -2391,9 +2707,9 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="5">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="4"/>
@@ -2402,9 +2718,9 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="5">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="4"/>
@@ -2413,9 +2729,9 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="5">
+        <f t="shared" ref="A98:A128" si="3">ROW()-1</f>
         <v>97</v>
       </c>
       <c r="B98" s="4"/>
@@ -2424,9 +2740,9 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="5">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="4"/>
@@ -2435,9 +2751,9 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="5">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="4"/>
@@ -2446,9 +2762,9 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="4"/>
@@ -2457,9 +2773,9 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="5">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="4"/>
@@ -2468,9 +2784,9 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="5">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="4"/>
@@ -2479,9 +2795,9 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="5">
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="4"/>
@@ -2490,9 +2806,9 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="5">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="4"/>
@@ -2501,9 +2817,9 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="5">
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" s="4"/>
@@ -2512,9 +2828,9 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="5">
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" s="4"/>
@@ -2523,9 +2839,9 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="5">
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" s="4"/>
@@ -2534,9 +2850,9 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="5">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" s="4"/>
@@ -2545,9 +2861,9 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="5">
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" s="4"/>
@@ -2556,9 +2872,9 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="5">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" s="4"/>
@@ -2567,9 +2883,9 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="5">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" s="4"/>
@@ -2578,9 +2894,9 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="5">
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" s="4"/>
@@ -2589,9 +2905,9 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="5">
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" s="4"/>
@@ -2600,9 +2916,9 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="5">
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" s="4"/>
@@ -2611,9 +2927,9 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="5">
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" s="4"/>
@@ -2622,9 +2938,9 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="5">
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" s="4"/>
@@ -2633,9 +2949,9 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="5">
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" s="4"/>
@@ -2644,9 +2960,9 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="5">
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" s="4"/>
@@ -2655,9 +2971,9 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="5">
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" s="4"/>
@@ -2666,9 +2982,9 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" s="4"/>
@@ -2677,9 +2993,9 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="5">
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" s="4"/>
@@ -2688,9 +3004,9 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="5">
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" s="4"/>
@@ -2699,9 +3015,9 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="5">
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" s="4"/>
@@ -2710,9 +3026,9 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="5">
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" s="4"/>
@@ -2721,9 +3037,9 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="5">
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" s="4"/>
@@ -2732,9 +3048,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="5">
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" s="4"/>
@@ -2743,9 +3059,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="5">
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" s="4"/>
@@ -2754,315 +3070,315 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -3070,46 +3386,36 @@
       <c r="F173" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="12"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="https://ejje.weblio.jp/content/context"/>
-    <hyperlink ref="F13" r:id="rId2" display="https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFA9D18E"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.39"/>
+    <col min="1" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937302FE-635A-4CF4-9DDA-A8EA0A3CB9DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46127EA-EBE2-4CA5-AE38-EB2E7A6E19FB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="178">
   <si>
     <t>No</t>
   </si>
@@ -575,6 +575,18 @@
   </si>
   <si>
     <t>不透明度</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>有効な</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>無効</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1265,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2349,8 +2361,12 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -2360,8 +2376,12 @@
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46127EA-EBE2-4CA5-AE38-EB2E7A6E19FB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="翻訳＆解説" sheetId="1" r:id="rId1"/>
-    <sheet name="アルファベット表" sheetId="2" r:id="rId2"/>
+    <sheet name="翻訳＆解説" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="アルファベット表" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'翻訳＆解説'!$A$1:$G$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'翻訳＆解説'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,129 +24,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="178">
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>日本語(意味)</t>
-  </si>
-  <si>
-    <t>解説</t>
-  </si>
-  <si>
-    <t>どこで使うの？ ex.</t>
-  </si>
-  <si>
-    <t>参考</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">英語</t>
+  </si>
+  <si>
+    <t xml:space="preserve">日本語(意味)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解説</t>
+  </si>
+  <si>
+    <t xml:space="preserve">どこで使うの？ ex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参考</t>
   </si>
   <si>
     <t xml:space="preserve"> Allow</t>
   </si>
   <si>
-    <t>許可する</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
-    <t>受け入れる</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>エイリアス</t>
-  </si>
-  <si>
-    <t>ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
-  </si>
-  <si>
-    <t>alter</t>
-  </si>
-  <si>
-    <t>変えます</t>
-  </si>
-  <si>
-    <t>SQL: ALTER TABLE...</t>
-  </si>
-  <si>
-    <t>Assert(Assertion)</t>
+    <t xml:space="preserve">許可する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">受け入れる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エイリアス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変えます</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL: ALTER TABLE...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assert(Assertion)</t>
   </si>
   <si>
     <t xml:space="preserve">表明、断言、主張 </t>
   </si>
   <si>
-    <t>プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
-  </si>
-  <si>
-    <t>テスト</t>
-  </si>
-  <si>
-    <t>attribute</t>
-  </si>
-  <si>
-    <t>属性</t>
-  </si>
-  <si>
-    <t>setAttribute, getAttributeとか</t>
-  </si>
-  <si>
-    <t>concurrent</t>
-  </si>
-  <si>
-    <t>同時</t>
-  </si>
-  <si>
-    <t>スレッド制御</t>
-  </si>
-  <si>
-    <t>confirm</t>
-  </si>
-  <si>
-    <t>確認する</t>
-  </si>
-  <si>
-    <t>メソッド名</t>
-  </si>
-  <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>コンフリクト</t>
-  </si>
-  <si>
-    <t>競合</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>前後関係, 文脈, 脈絡, (状況)</t>
-  </si>
-  <si>
-    <t>https://ejje.weblio.jp/content/context</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>定義</t>
-  </si>
-  <si>
-    <t>カラム定義とか？</t>
-  </si>
-  <si>
-    <t>deploy</t>
-  </si>
-  <si>
-    <t>デプロイ(配置する、展開する)</t>
+    <t xml:space="preserve">プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setAttribute, getAttributeとか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concurrent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">同時</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スレッド制御</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">確認する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メソッド名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コンフリクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">競合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">前後関係, 文脈, 脈絡, (状況)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ejje.weblio.jp/content/context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カラム定義とか？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デプロイ(配置する、展開する)</t>
   </si>
   <si>
     <r>
@@ -167,7 +157,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>Web</t>
+      <t xml:space="preserve">Web</t>
     </r>
     <r>
       <rPr>
@@ -177,423 +167,467 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>アプリケーションをシステムを利用可能な状態にすること</t>
+      <t xml:space="preserve">アプリケーションをシステムを利用可能な状態にすること</t>
     </r>
   </si>
   <si>
-    <t>https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
-  </si>
-  <si>
-    <t>Deploy</t>
-  </si>
-  <si>
-    <t>デプロイ</t>
-  </si>
-  <si>
-    <t>配備</t>
-  </si>
-  <si>
-    <t>eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
-  </si>
-  <si>
-    <t>書籍「JSP&amp;サーブレット」付録D</t>
-  </si>
-  <si>
-    <t>Directive</t>
-  </si>
-  <si>
-    <t>ディレクティブ</t>
-  </si>
-  <si>
-    <t>プログラミング言語の一部の構成要素を指す</t>
-  </si>
-  <si>
-    <t>jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
-  </si>
-  <si>
-    <t>disable</t>
-  </si>
-  <si>
-    <t>無効にする</t>
-  </si>
-  <si>
-    <t>Dispatcher</t>
-  </si>
-  <si>
-    <t>発送係</t>
-  </si>
-  <si>
-    <t>処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
-  </si>
-  <si>
-    <t>enable</t>
-  </si>
-  <si>
-    <t>有効にする</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>実在、存在</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>環境</t>
-  </si>
-  <si>
-    <t>jreのe</t>
-  </si>
-  <si>
-    <t>Executes</t>
-  </si>
-  <si>
-    <t>実行</t>
-  </si>
-  <si>
-    <t>.exe</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>転送</t>
-  </si>
-  <si>
-    <t>RequestDispatcherメソッド</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>含める</t>
+    <t xml:space="preserve">https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デプロイ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配備</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">書籍「JSP&amp;サーブレット」付録D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Directive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ディレクティブ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">プログラミング言語の一部の構成要素を指す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無効にする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">発送係</t>
+  </si>
+  <si>
+    <t xml:space="preserve">処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有効にする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実在、存在</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">環境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jreのe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.exe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">転送</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RequestDispatcherメソッド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">含める</t>
   </si>
   <si>
     <t xml:space="preserve">let </t>
   </si>
   <si>
-    <t>仮に</t>
-  </si>
-  <si>
-    <t>変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
-  </si>
-  <si>
-    <t>javaScript変数宣言、ブロック単位のスコープ</t>
-  </si>
-  <si>
-    <t>https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
-  </si>
-  <si>
-    <t>library directory</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
-  </si>
-  <si>
-    <t>libディレクトリ</t>
-  </si>
-  <si>
-    <t>modify</t>
-  </si>
-  <si>
-    <t>変更する</t>
-  </si>
-  <si>
-    <t>notation</t>
-  </si>
-  <si>
-    <t>気泡</t>
-  </si>
-  <si>
-    <t>JSPNのn(javascript object notation)</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>さもないと</t>
-  </si>
-  <si>
-    <t>jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
-  </si>
-  <si>
-    <t>parse</t>
-  </si>
-  <si>
-    <t>解析する</t>
-  </si>
-  <si>
-    <t>パース</t>
-  </si>
-  <si>
-    <t>parseIntとかparseDoubleとか</t>
-  </si>
-  <si>
-    <t>Prepared</t>
-  </si>
-  <si>
-    <t>準備された</t>
-  </si>
-  <si>
-    <t>PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
-  </si>
-  <si>
-    <t>promise</t>
-  </si>
-  <si>
-    <t>約束する</t>
-  </si>
-  <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>反応する</t>
-  </si>
-  <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>登録</t>
-  </si>
-  <si>
-    <t>require</t>
-  </si>
-  <si>
-    <t>要求する</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>変数</t>
-  </si>
-  <si>
-    <t>javaScript変数宣言、関数単位のスコープ、var</t>
-  </si>
-  <si>
-    <t>Wildcard</t>
-  </si>
-  <si>
-    <t>ワイルドカード</t>
-  </si>
-  <si>
-    <t>全てのパターンにマッチする文字列のこと</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>頭にくっつく文字のこと、接頭辞</t>
-  </si>
-  <si>
-    <t>suffix</t>
-  </si>
-  <si>
-    <t>末尾にくっつく文字のこと、</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>未定義</t>
-  </si>
-  <si>
-    <t>javascriptで変数の値が未定義であることを表す</t>
-  </si>
-  <si>
-    <t>overhead</t>
-  </si>
-  <si>
-    <t>頭上,間接費</t>
-  </si>
-  <si>
-    <t>ある処理を行うために間接的にかかってしまうコスト</t>
-  </si>
-  <si>
-    <t>strict</t>
-  </si>
-  <si>
-    <t>厳格な</t>
-  </si>
-  <si>
-    <t>javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
-  </si>
-  <si>
-    <t>javascriptのsterictモードで使用</t>
-  </si>
-  <si>
-    <t>built-in-object</t>
-  </si>
-  <si>
-    <t>javascriptの組み込みオブジェクト</t>
-  </si>
-  <si>
-    <t>defined</t>
-  </si>
-  <si>
-    <t>定義された</t>
-  </si>
-  <si>
-    <t>⇔undefined</t>
-  </si>
-  <si>
-    <t>Implemented</t>
-  </si>
-  <si>
-    <t>実装済み</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>除去する</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>分布、配布形態</t>
-  </si>
-  <si>
-    <t>Linaxディストリビューション</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t>外部</t>
-  </si>
-  <si>
-    <t>submit</t>
-  </si>
-  <si>
-    <t>提出する</t>
-  </si>
-  <si>
-    <t>formの中身をサーバーに送信</t>
-  </si>
-  <si>
-    <t>HTML属性</t>
-  </si>
-  <si>
-    <t>absolute</t>
-  </si>
-  <si>
-    <t>絶対の</t>
-  </si>
-  <si>
-    <t>CSSの値</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>規約</t>
-  </si>
-  <si>
-    <t>http,file,ex...</t>
-  </si>
-  <si>
-    <t>asynchronous</t>
-  </si>
-  <si>
-    <t>非同期</t>
-  </si>
-  <si>
-    <t>AjsxのA</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>進捗</t>
-  </si>
-  <si>
-    <t>detection</t>
-  </si>
-  <si>
-    <t>検出</t>
-  </si>
-  <si>
-    <t>define</t>
-  </si>
-  <si>
-    <t>定義する</t>
-  </si>
-  <si>
-    <t>mount</t>
-  </si>
-  <si>
-    <t>配置する要素とアプリケーションの紐づけ</t>
-  </si>
-  <si>
-    <t>Vue.js</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>編集する</t>
-  </si>
-  <si>
-    <t>editer</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>分割</t>
-  </si>
-  <si>
-    <t>HTMLタグ</t>
+    <t xml:space="preserve">仮に</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javaScript変数宣言、ブロック単位のスコープ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">library directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libディレクトリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変更する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">気泡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSPNのn(javascript object notation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherwise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さもないと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解析する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パース</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parseIntとかparseDoubleとか</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">準備された</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">約束する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React</t>
+  </si>
+  <si>
+    <t xml:space="preserve">反応する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登録</t>
+  </si>
+  <si>
+    <t xml:space="preserve">require</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要求する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">変数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javaScript変数宣言、関数単位のスコープ、var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildcard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワイルドカード</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全てのパターンにマッチする文字列のこと</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頭にくっつく文字のこと、接頭辞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">末尾にくっつく文字のこと、</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未定義</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascriptで変数の値が未定義であることを表す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頭上,間接費</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ある処理を行うために間接的にかかってしまうコスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">厳格な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascriptのsterictモードで使用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">built-in-object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascriptの組み込みオブジェクト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定義された</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⇔undefined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">実装済み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">除去する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分布、配布形態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linaxディストリビューション</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提出する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formの中身をサーバーに送信</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML属性</t>
+  </si>
+  <si>
+    <t xml:space="preserve">absolute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">絶対の</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSSの値</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">規約</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http,file,ex...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asynchronous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非同期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AjsxのA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">進捗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">検出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">define</t>
+  </si>
+  <si>
+    <t xml:space="preserve">定義する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配置する要素とアプリケーションの紐づけ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">編集する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">editer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTMLタグ</t>
   </si>
   <si>
     <t xml:space="preserve">roaming </t>
   </si>
   <si>
-    <t>携帯電話やPHS、またはインターネット接続サービス等において、事業者間の提携により、利用者が契約しているサービス事業者のサービスエリア外であっても、提携先の事業者のエリア内にあれば、元の事業者と同様のサービスを利用できることをいう。</t>
-  </si>
-  <si>
-    <t>transition</t>
-  </si>
-  <si>
-    <t>遷移</t>
-  </si>
-  <si>
-    <t>opacity</t>
-  </si>
-  <si>
-    <t>不透明度</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>有効な</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>無効</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">携帯電話や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PHS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">、またはインターネット接続サービス等において、事業者間の提携により、利用者が契約しているサービス事業者のサービスエリア外であっても、提携先の事業者のエリア内にあれば、元の事業者と同様のサービスを利用できることをいう。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">transition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">遷移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不透明度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有効な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invalid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">無効</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">減らす</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崩壊</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -602,7 +636,25 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="游ゴシック"/>
@@ -672,18 +724,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -700,139 +740,170 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -891,29 +962,17 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF252525"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -923,29 +982,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="図 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3137400" cy="4201560"/>
+          <a:ext cx="3136680" cy="4200840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,324 +1013,30 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FF24C4CC"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="76.5" customWidth="1"/>
-    <col min="6" max="1025" width="8.375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1298,9 +1057,9 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1314,9 +1073,9 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="4">
-        <f t="shared" si="0"/>
+    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1330,9 +1089,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
-        <f t="shared" si="0"/>
+    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1348,9 +1107,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
+    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1366,9 +1125,9 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
+    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1386,9 +1145,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
+    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1404,9 +1163,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
+    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1422,9 +1181,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
+    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1440,9 +1199,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
+    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1460,9 +1219,9 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
+    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1478,9 +1237,9 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
+    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1496,9 +1255,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1516,9 +1275,9 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
+    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1538,9 +1297,9 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1558,9 +1317,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
+    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1574,9 +1333,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1592,9 +1351,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
+    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1608,9 +1367,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
+    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1624,9 +1383,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
+    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1642,9 +1401,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="4">
-        <f t="shared" si="0"/>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1662,9 +1421,9 @@
       <c r="F21" s="4"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="4">
-        <f t="shared" si="0"/>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1680,9 +1439,9 @@
       <c r="F22" s="4"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1696,9 +1455,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
+    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1718,9 +1477,9 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
+    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1738,9 +1497,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
+    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1756,9 +1515,9 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
+    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1774,9 +1533,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
-        <f t="shared" si="0"/>
+    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1792,9 +1551,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
-        <f t="shared" si="0"/>
+    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1810,9 +1569,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="4">
-        <f t="shared" si="0"/>
+    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1830,9 +1589,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
+    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1848,9 +1607,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
+    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1864,9 +1623,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
+    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1880,9 +1639,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1898,9 +1657,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="4">
-        <f t="shared" si="1"/>
+    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1914,9 +1673,9 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <f t="shared" si="1"/>
+    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1930,9 +1689,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="4">
-        <f t="shared" si="1"/>
+    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1948,9 +1707,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <f t="shared" si="1"/>
+    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1966,9 +1725,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="4">
-        <f t="shared" si="1"/>
+    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -1982,9 +1741,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <f t="shared" si="1"/>
+    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1998,9 +1757,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="4">
-        <f t="shared" si="1"/>
+    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -2015,9 +1774,9 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <f t="shared" si="1"/>
+    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -2032,9 +1791,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="4">
-        <f t="shared" si="1"/>
+    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2051,9 +1810,9 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <f t="shared" si="1"/>
+    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -2066,9 +1825,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A45" s="4">
-        <f t="shared" si="1"/>
+    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -2083,9 +1842,9 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <f t="shared" si="1"/>
+    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -2098,9 +1857,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A47" s="4">
-        <f t="shared" si="1"/>
+    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -2113,9 +1872,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
-        <f t="shared" si="1"/>
+    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -2130,9 +1889,9 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="4">
-        <f t="shared" si="1"/>
+    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -2145,9 +1904,9 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
-        <f t="shared" si="1"/>
+    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -2164,9 +1923,9 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="4">
-        <f t="shared" si="1"/>
+    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2181,9 +1940,9 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="4">
-        <f t="shared" si="1"/>
+    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -2198,9 +1957,9 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="4">
-        <f t="shared" si="1"/>
+    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -2215,9 +1974,9 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="4">
-        <f t="shared" si="1"/>
+    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -2230,9 +1989,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="4">
-        <f t="shared" si="1"/>
+    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2245,9 +2004,9 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="4">
-        <f t="shared" si="1"/>
+    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="n">
+        <f aca="false">ROW()-1</f>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2260,9 +2019,9 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="5">
-        <f t="shared" si="1"/>
+    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2277,9 +2036,9 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
-        <f t="shared" si="1"/>
+    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2294,9 +2053,9 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="5">
-        <f t="shared" si="1"/>
+    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2311,9 +2070,9 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="5">
-        <f t="shared" si="1"/>
+    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2326,9 +2085,9 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="5">
-        <f t="shared" si="1"/>
+    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2341,9 +2100,9 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="5">
-        <f t="shared" si="1"/>
+    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2356,9 +2115,9 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="5">
-        <f t="shared" si="1"/>
+    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2371,9 +2130,9 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="5">
-        <f t="shared" si="1"/>
+    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2386,31 +2145,39 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="5">
-        <f t="shared" si="1"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>64</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="5">
-        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>65</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="5">
-        <f t="shared" si="2"/>
+    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
@@ -2419,9 +2186,9 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="5">
-        <f t="shared" si="2"/>
+    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
@@ -2430,9 +2197,9 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="5">
-        <f t="shared" si="2"/>
+    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
@@ -2441,9 +2208,9 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="5">
-        <f t="shared" si="2"/>
+    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
@@ -2452,9 +2219,9 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="5">
-        <f t="shared" si="2"/>
+    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
@@ -2463,9 +2230,9 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="5">
-        <f t="shared" si="2"/>
+    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
@@ -2474,9 +2241,9 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="5">
-        <f t="shared" si="2"/>
+    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
@@ -2485,9 +2252,9 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="5">
-        <f t="shared" si="2"/>
+    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>73</v>
       </c>
       <c r="B74" s="4"/>
@@ -2496,9 +2263,9 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="5">
-        <f t="shared" si="2"/>
+    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>74</v>
       </c>
       <c r="B75" s="4"/>
@@ -2507,9 +2274,9 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="5">
-        <f t="shared" si="2"/>
+    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>75</v>
       </c>
       <c r="B76" s="4"/>
@@ -2518,9 +2285,9 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="5">
-        <f t="shared" si="2"/>
+    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>76</v>
       </c>
       <c r="B77" s="4"/>
@@ -2529,9 +2296,9 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="5">
-        <f t="shared" si="2"/>
+    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>77</v>
       </c>
       <c r="B78" s="4"/>
@@ -2540,9 +2307,9 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="5">
-        <f t="shared" si="2"/>
+    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>78</v>
       </c>
       <c r="B79" s="4"/>
@@ -2551,9 +2318,9 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="5">
-        <f t="shared" si="2"/>
+    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>79</v>
       </c>
       <c r="B80" s="4"/>
@@ -2562,9 +2329,9 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="5">
-        <f t="shared" si="2"/>
+    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>80</v>
       </c>
       <c r="B81" s="4"/>
@@ -2573,9 +2340,9 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="5">
-        <f t="shared" si="2"/>
+    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>81</v>
       </c>
       <c r="B82" s="4"/>
@@ -2584,9 +2351,9 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="5">
-        <f t="shared" si="2"/>
+    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>82</v>
       </c>
       <c r="B83" s="4"/>
@@ -2595,9 +2362,9 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="5">
-        <f t="shared" si="2"/>
+    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>83</v>
       </c>
       <c r="B84" s="4"/>
@@ -2606,9 +2373,9 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="5">
-        <f t="shared" si="2"/>
+    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>84</v>
       </c>
       <c r="B85" s="4"/>
@@ -2617,9 +2384,9 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="5">
-        <f t="shared" si="2"/>
+    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>85</v>
       </c>
       <c r="B86" s="4"/>
@@ -2628,9 +2395,9 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="5">
-        <f t="shared" si="2"/>
+    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>86</v>
       </c>
       <c r="B87" s="4"/>
@@ -2639,9 +2406,9 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="5">
-        <f t="shared" si="2"/>
+    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>87</v>
       </c>
       <c r="B88" s="4"/>
@@ -2650,9 +2417,9 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="5">
-        <f t="shared" si="2"/>
+    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>88</v>
       </c>
       <c r="B89" s="4"/>
@@ -2661,9 +2428,9 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="5">
-        <f t="shared" si="2"/>
+    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>89</v>
       </c>
       <c r="B90" s="4"/>
@@ -2672,9 +2439,9 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="5">
-        <f t="shared" si="2"/>
+    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>90</v>
       </c>
       <c r="B91" s="4"/>
@@ -2683,9 +2450,9 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="5">
-        <f t="shared" si="2"/>
+    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>91</v>
       </c>
       <c r="B92" s="4"/>
@@ -2694,9 +2461,9 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="5">
-        <f t="shared" si="2"/>
+    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>92</v>
       </c>
       <c r="B93" s="4"/>
@@ -2705,9 +2472,9 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="5">
-        <f t="shared" si="2"/>
+    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>93</v>
       </c>
       <c r="B94" s="4"/>
@@ -2716,9 +2483,9 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="5">
-        <f t="shared" si="2"/>
+    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>94</v>
       </c>
       <c r="B95" s="4"/>
@@ -2727,9 +2494,9 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="5">
-        <f t="shared" si="2"/>
+    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>95</v>
       </c>
       <c r="B96" s="4"/>
@@ -2738,9 +2505,9 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="5">
-        <f t="shared" si="2"/>
+    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>96</v>
       </c>
       <c r="B97" s="4"/>
@@ -2749,9 +2516,9 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="5">
-        <f t="shared" ref="A98:A128" si="3">ROW()-1</f>
+    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>97</v>
       </c>
       <c r="B98" s="4"/>
@@ -2760,9 +2527,9 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="5">
-        <f t="shared" si="3"/>
+    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>98</v>
       </c>
       <c r="B99" s="4"/>
@@ -2771,9 +2538,9 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="5">
-        <f t="shared" si="3"/>
+    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>99</v>
       </c>
       <c r="B100" s="4"/>
@@ -2782,9 +2549,9 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="5">
-        <f t="shared" si="3"/>
+    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>100</v>
       </c>
       <c r="B101" s="4"/>
@@ -2793,9 +2560,9 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="5">
-        <f t="shared" si="3"/>
+    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>101</v>
       </c>
       <c r="B102" s="4"/>
@@ -2804,9 +2571,9 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="5">
-        <f t="shared" si="3"/>
+    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>102</v>
       </c>
       <c r="B103" s="4"/>
@@ -2815,9 +2582,9 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="5">
-        <f t="shared" si="3"/>
+    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>103</v>
       </c>
       <c r="B104" s="4"/>
@@ -2826,9 +2593,9 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="5">
-        <f t="shared" si="3"/>
+    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>104</v>
       </c>
       <c r="B105" s="4"/>
@@ -2837,9 +2604,9 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="5">
-        <f t="shared" si="3"/>
+    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>105</v>
       </c>
       <c r="B106" s="4"/>
@@ -2848,9 +2615,9 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="5">
-        <f t="shared" si="3"/>
+    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>106</v>
       </c>
       <c r="B107" s="4"/>
@@ -2859,9 +2626,9 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="5">
-        <f t="shared" si="3"/>
+    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>107</v>
       </c>
       <c r="B108" s="4"/>
@@ -2870,9 +2637,9 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="5">
-        <f t="shared" si="3"/>
+    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>108</v>
       </c>
       <c r="B109" s="4"/>
@@ -2881,9 +2648,9 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A110" s="5">
-        <f t="shared" si="3"/>
+    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>109</v>
       </c>
       <c r="B110" s="4"/>
@@ -2892,9 +2659,9 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A111" s="5">
-        <f t="shared" si="3"/>
+    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>110</v>
       </c>
       <c r="B111" s="4"/>
@@ -2903,9 +2670,9 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A112" s="5">
-        <f t="shared" si="3"/>
+    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>111</v>
       </c>
       <c r="B112" s="4"/>
@@ -2914,9 +2681,9 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="5">
-        <f t="shared" si="3"/>
+    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>112</v>
       </c>
       <c r="B113" s="4"/>
@@ -2925,9 +2692,9 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="5">
-        <f t="shared" si="3"/>
+    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>113</v>
       </c>
       <c r="B114" s="4"/>
@@ -2936,9 +2703,9 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="5">
-        <f t="shared" si="3"/>
+    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>114</v>
       </c>
       <c r="B115" s="4"/>
@@ -2947,9 +2714,9 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="5">
-        <f t="shared" si="3"/>
+    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>115</v>
       </c>
       <c r="B116" s="4"/>
@@ -2958,9 +2725,9 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="5">
-        <f t="shared" si="3"/>
+    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>116</v>
       </c>
       <c r="B117" s="4"/>
@@ -2969,9 +2736,9 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="5">
-        <f t="shared" si="3"/>
+    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>117</v>
       </c>
       <c r="B118" s="4"/>
@@ -2980,9 +2747,9 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="5">
-        <f t="shared" si="3"/>
+    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>118</v>
       </c>
       <c r="B119" s="4"/>
@@ -2991,9 +2758,9 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="5">
-        <f t="shared" si="3"/>
+    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>119</v>
       </c>
       <c r="B120" s="4"/>
@@ -3002,9 +2769,9 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="5">
-        <f t="shared" si="3"/>
+    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>120</v>
       </c>
       <c r="B121" s="4"/>
@@ -3013,9 +2780,9 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="5">
-        <f t="shared" si="3"/>
+    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>121</v>
       </c>
       <c r="B122" s="4"/>
@@ -3024,9 +2791,9 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="5">
-        <f t="shared" si="3"/>
+    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>122</v>
       </c>
       <c r="B123" s="4"/>
@@ -3035,9 +2802,9 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="5">
-        <f t="shared" si="3"/>
+    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>123</v>
       </c>
       <c r="B124" s="4"/>
@@ -3046,9 +2813,9 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="5">
-        <f t="shared" si="3"/>
+    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>124</v>
       </c>
       <c r="B125" s="4"/>
@@ -3057,9 +2824,9 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="5">
-        <f t="shared" si="3"/>
+    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>125</v>
       </c>
       <c r="B126" s="4"/>
@@ -3068,9 +2835,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="5">
-        <f t="shared" si="3"/>
+    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>126</v>
       </c>
       <c r="B127" s="4"/>
@@ -3079,9 +2846,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="5">
-        <f t="shared" si="3"/>
+    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="n">
+        <f aca="false">ROW()-1</f>
         <v>127</v>
       </c>
       <c r="B128" s="4"/>
@@ -3090,315 +2857,315 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -3406,36 +3173,46 @@
       <c r="F173" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="12"/>
+  <autoFilter ref="A1:G1"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F11" r:id="rId1" display="https://ejje.weblio.jp/content/context"/>
+    <hyperlink ref="F13" r:id="rId2" display="https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFA9D18E"/>
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="8.375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.39"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="12"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\General_help(Git)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533C777B-5F33-46A5-B241-1FE6E2618ED7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="翻訳＆解説" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="アルファベット表" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="翻訳＆解説" sheetId="1" r:id="rId1"/>
+    <sheet name="アルファベット表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'翻訳＆解説'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'翻訳＆解説'!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -24,129 +34,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日本語(意味)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解説</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どこで使うの？ ex.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">参考</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>日本語(意味)</t>
+  </si>
+  <si>
+    <t>解説</t>
+  </si>
+  <si>
+    <t>どこで使うの？ ex.</t>
+  </si>
+  <si>
+    <t>参考</t>
   </si>
   <si>
     <t xml:space="preserve"> Allow</t>
   </si>
   <si>
-    <t xml:space="preserve">許可する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">受け入れる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エイリアス</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変えます</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SQL: ALTER TABLE...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assert(Assertion)</t>
+    <t>許可する</t>
+  </si>
+  <si>
+    <t>Accept</t>
+  </si>
+  <si>
+    <t>受け入れる</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>エイリアス</t>
+  </si>
+  <si>
+    <t>ファイルなどの実体を別の名前で参照するためのシンボルといった意味</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>変えます</t>
+  </si>
+  <si>
+    <t>SQL: ALTER TABLE...</t>
+  </si>
+  <si>
+    <t>Assert(Assertion)</t>
   </si>
   <si>
     <t xml:space="preserve">表明、断言、主張 </t>
   </si>
   <si>
-    <t xml:space="preserve">プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setAttribute, getAttributeとか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concurrent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">同時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スレッド制御</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confirm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">確認する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">メソッド名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コンフリクト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">競合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">前後関係, 文脈, 脈絡, (状況)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ejje.weblio.jp/content/context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カラム定義とか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デプロイ(配置する、展開する)</t>
+    <t>プログラミング言語などの仕様・機能の一つで、プログラムの前提として満たされるべき条件を記述し、実行時にそれが満たされていない場合にエラーや例外を発生させたり、メッセージを表示して処理を中断したりする機能をアサーションチェックあるいは略してアサーションという</t>
+  </si>
+  <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>setAttribute, getAttributeとか</t>
+  </si>
+  <si>
+    <t>concurrent</t>
+  </si>
+  <si>
+    <t>同時</t>
+  </si>
+  <si>
+    <t>スレッド制御</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>確認する</t>
+  </si>
+  <si>
+    <t>メソッド名</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>コンフリクト</t>
+  </si>
+  <si>
+    <t>競合</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>前後関係, 文脈, 脈絡, (状況)</t>
+  </si>
+  <si>
+    <t>https://ejje.weblio.jp/content/context</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>定義</t>
+  </si>
+  <si>
+    <t>カラム定義とか？</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>デプロイ(配置する、展開する)</t>
   </si>
   <si>
     <r>
@@ -157,7 +167,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Web</t>
+      <t>Web</t>
     </r>
     <r>
       <rPr>
@@ -167,386 +177,386 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">アプリケーションをシステムを利用可能な状態にすること</t>
+      <t>アプリケーションをシステムを利用可能な状態にすること</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deploy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デプロイ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配備</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">書籍「JSP&amp;サーブレット」付録D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ディレクティブ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">プログラミング言語の一部の構成要素を指す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無効にする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispatcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発送係</t>
-  </si>
-  <si>
-    <t xml:space="preserve">処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有効にする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実在、存在</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">環境</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jreのe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.exe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">転送</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RequestDispatcherメソッド</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含める</t>
+    <t>https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4</t>
+  </si>
+  <si>
+    <t>Deploy</t>
+  </si>
+  <si>
+    <t>デプロイ</t>
+  </si>
+  <si>
+    <t>配備</t>
+  </si>
+  <si>
+    <t>eclipseの動的webプロジェクトに配備されたファイル群を、Java EEが定めたディレクトリ構成に配備しなおすこと</t>
+  </si>
+  <si>
+    <t>書籍「JSP&amp;サーブレット」付録D</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>ディレクティブ</t>
+  </si>
+  <si>
+    <t>プログラミング言語の一部の構成要素を指す</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用(&lt;%@ 属性名="値" %&gt;でなんかいろいろ定義してるやつ)。pageディレクティブ、includeディレクティブ、taglibディレクティブはよく使う</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>無効にする</t>
+  </si>
+  <si>
+    <t>Dispatcher</t>
+  </si>
+  <si>
+    <t>発送係</t>
+  </si>
+  <si>
+    <t>処理を待っているデータやプロセスが複数ある場合に、効率よく処理できるよう必要な資源の振り分けや割り当てを行うシステムやプログラムのこと</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>有効にする</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>実在、存在</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>環境</t>
+  </si>
+  <si>
+    <t>jreのe</t>
+  </si>
+  <si>
+    <t>Executes</t>
+  </si>
+  <si>
+    <t>実行</t>
+  </si>
+  <si>
+    <t>.exe</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>転送</t>
+  </si>
+  <si>
+    <t>RequestDispatcherメソッド</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>含める</t>
   </si>
   <si>
     <t xml:space="preserve">let </t>
   </si>
   <si>
-    <t xml:space="preserve">仮に</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javaScript変数宣言、ブロック単位のスコープ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">library directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libディレクトリ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変更する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">気泡</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSPNのn(javascript object notation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otherwise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">さもないと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">解析する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パース</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parseIntとかparseDoubleとか</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">準備された</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">promise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">約束する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React</t>
-  </si>
-  <si>
-    <t xml:space="preserve">反応する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">redirect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Register</t>
-  </si>
-  <si>
-    <t xml:space="preserve">登録</t>
-  </si>
-  <si>
-    <t xml:space="preserve">require</t>
-  </si>
-  <si>
-    <t xml:space="preserve">要求する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">変数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javaScript変数宣言、関数単位のスコープ、var</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wildcard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワイルドカード</t>
-  </si>
-  <si>
-    <t xml:space="preserve">全てのパターンにマッチする文字列のこと</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頭にくっつく文字のこと、接頭辞</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">末尾にくっつく文字のこと、</t>
-  </si>
-  <si>
-    <t xml:space="preserve">undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未定義</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptで変数の値が未定義であることを表す</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">頭上,間接費</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ある処理を行うために間接的にかかってしまうコスト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">厳格な</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptのsterictモードで使用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">built-in-object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">javascriptの組み込みオブジェクト</t>
-  </si>
-  <si>
-    <t xml:space="preserve">defined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義された</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⇔undefined</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implemented</t>
-  </si>
-  <si>
-    <t xml:space="preserve">実装済み</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除去する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分布、配布形態</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linaxディストリビューション</t>
-  </si>
-  <si>
-    <t xml:space="preserve">external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外部</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">提出する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formの中身をサーバーに送信</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML属性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">absolute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">絶対の</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSSの値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">規約</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http,file,ex...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asynchronous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非同期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AjsxのA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">進捗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">検出</t>
-  </si>
-  <si>
-    <t xml:space="preserve">define</t>
-  </si>
-  <si>
-    <t xml:space="preserve">定義する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配置する要素とアプリケーションの紐づけ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">編集する</t>
-  </si>
-  <si>
-    <t xml:space="preserve">editer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分割</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTMLタグ</t>
+    <t>仮に</t>
+  </si>
+  <si>
+    <t>変数宣言で、例えば[let moji=a;]みたいなのがあったら「仮にmojiをaとしよう」みたいな意味になる(数学でも使われる表現)</t>
+  </si>
+  <si>
+    <t>javaScript変数宣言、ブロック単位のスコープ</t>
+  </si>
+  <si>
+    <t>https://detail.chiebukuro.yahoo.co.jp/qa/question_detail/q11131063151</t>
+  </si>
+  <si>
+    <t>library directory</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Webアプリケーションで使用するjarファイル等を置くディレクトリ</t>
+  </si>
+  <si>
+    <t>libディレクトリ</t>
+  </si>
+  <si>
+    <t>modify</t>
+  </si>
+  <si>
+    <t>変更する</t>
+  </si>
+  <si>
+    <t>notation</t>
+  </si>
+  <si>
+    <t>気泡</t>
+  </si>
+  <si>
+    <t>JSPNのn(javascript object notation)</t>
+  </si>
+  <si>
+    <t>otherwise</t>
+  </si>
+  <si>
+    <t>さもないと</t>
+  </si>
+  <si>
+    <t>jspファイル内で使用。jstlカスタムタグ: if-else if-else文</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>解析する</t>
+  </si>
+  <si>
+    <t>パース</t>
+  </si>
+  <si>
+    <t>parseIntとかparseDoubleとか</t>
+  </si>
+  <si>
+    <t>Prepared</t>
+  </si>
+  <si>
+    <t>準備された</t>
+  </si>
+  <si>
+    <t>PreparedStatementクラス(DB操作用Javaクラス, すっきりわかるjava2-P348参照)</t>
+  </si>
+  <si>
+    <t>promise</t>
+  </si>
+  <si>
+    <t>約束する</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>反応する</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>コマンドやプログラムを実行する際のデータの入力元や出力先を利用者の指定したファイルに切り替えること</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>登録</t>
+  </si>
+  <si>
+    <t>require</t>
+  </si>
+  <si>
+    <t>要求する</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>変数</t>
+  </si>
+  <si>
+    <t>javaScript変数宣言、関数単位のスコープ、var</t>
+  </si>
+  <si>
+    <t>Wildcard</t>
+  </si>
+  <si>
+    <t>ワイルドカード</t>
+  </si>
+  <si>
+    <t>全てのパターンにマッチする文字列のこと</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>頭にくっつく文字のこと、接頭辞</t>
+  </si>
+  <si>
+    <t>suffix</t>
+  </si>
+  <si>
+    <t>末尾にくっつく文字のこと、</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>未定義</t>
+  </si>
+  <si>
+    <t>javascriptで変数の値が未定義であることを表す</t>
+  </si>
+  <si>
+    <t>overhead</t>
+  </si>
+  <si>
+    <t>頭上,間接費</t>
+  </si>
+  <si>
+    <t>ある処理を行うために間接的にかかってしまうコスト</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>厳格な</t>
+  </si>
+  <si>
+    <t>javascriptのsterictモード: 記法に制限をつけ怪しいコードを書けなくする</t>
+  </si>
+  <si>
+    <t>javascriptのsterictモードで使用</t>
+  </si>
+  <si>
+    <t>built-in-object</t>
+  </si>
+  <si>
+    <t>javascriptの組み込みオブジェクト</t>
+  </si>
+  <si>
+    <t>defined</t>
+  </si>
+  <si>
+    <t>定義された</t>
+  </si>
+  <si>
+    <t>⇔undefined</t>
+  </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>実装済み</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>除去する</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>分布、配布形態</t>
+  </si>
+  <si>
+    <t>Linaxディストリビューション</t>
+  </si>
+  <si>
+    <t>external</t>
+  </si>
+  <si>
+    <t>外部</t>
+  </si>
+  <si>
+    <t>submit</t>
+  </si>
+  <si>
+    <t>提出する</t>
+  </si>
+  <si>
+    <t>formの中身をサーバーに送信</t>
+  </si>
+  <si>
+    <t>HTML属性</t>
+  </si>
+  <si>
+    <t>absolute</t>
+  </si>
+  <si>
+    <t>絶対の</t>
+  </si>
+  <si>
+    <t>CSSの値</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>規約</t>
+  </si>
+  <si>
+    <t>http,file,ex...</t>
+  </si>
+  <si>
+    <t>asynchronous</t>
+  </si>
+  <si>
+    <t>非同期</t>
+  </si>
+  <si>
+    <t>AjsxのA</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>進捗</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>検出</t>
+  </si>
+  <si>
+    <t>define</t>
+  </si>
+  <si>
+    <t>定義する</t>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>配置する要素とアプリケーションの紐づけ</t>
+  </si>
+  <si>
+    <t>Vue.js</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>編集する</t>
+  </si>
+  <si>
+    <t>editer</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t>HTMLタグ</t>
   </si>
   <si>
     <t xml:space="preserve">roaming </t>
@@ -560,7 +570,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">携帯電話や</t>
+      <t>携帯電話や</t>
     </r>
     <r>
       <rPr>
@@ -570,7 +580,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">PHS</t>
+      <t>PHS</t>
     </r>
     <r>
       <rPr>
@@ -580,54 +590,68 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">、またはインターネット接続サービス等において、事業者間の提携により、利用者が契約しているサービス事業者のサービスエリア外であっても、提携先の事業者のエリア内にあれば、元の事業者と同様のサービスを利用できることをいう。</t>
+      <t>、またはインターネット接続サービス等において、事業者間の提携により、利用者が契約しているサービス事業者のサービスエリア外であっても、提携先の事業者のエリア内にあれば、元の事業者と同様のサービスを利用できることをいう。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">transition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">遷移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">不透明度</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有効な</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">無効</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">減らす</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">崩壊</t>
+    <t>transition</t>
+  </si>
+  <si>
+    <t>遷移</t>
+  </si>
+  <si>
+    <t>opacity</t>
+  </si>
+  <si>
+    <t>不透明度</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>有効な</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>無効</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>減らす</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>崩壊</t>
+  </si>
+  <si>
+    <t>CSS値</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>CSSプロパティ</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>emit</t>
+  </si>
+  <si>
+    <t>放出する</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -636,25 +660,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="游ゴシック"/>
@@ -724,6 +730,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -740,170 +752,139 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -962,17 +943,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF252525"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -988,11 +981,17 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="図 1" descr=""/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1013,30 +1012,324 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF24C4CC"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="24.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.39"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="76.5" customWidth="1"/>
+    <col min="6" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,9 +1350,9 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="4">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1073,9 +1366,9 @@
       <c r="F2" s="4"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1089,9 +1382,9 @@
       <c r="F3" s="4"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="4">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1107,9 +1400,9 @@
       <c r="F4" s="4"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1125,9 +1418,9 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1145,9 +1438,9 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1163,9 +1456,9 @@
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1181,9 +1474,9 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1199,9 +1492,9 @@
       <c r="F9" s="8"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1219,9 +1512,9 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1237,9 +1530,9 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1255,9 +1548,9 @@
       <c r="F12" s="4"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1275,9 +1568,9 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1297,9 +1590,9 @@
       </c>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="15" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1317,9 +1610,9 @@
       <c r="F15" s="4"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1333,9 +1626,9 @@
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1351,9 +1644,9 @@
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1367,9 +1660,9 @@
       <c r="F18" s="4"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1383,9 +1676,9 @@
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1401,9 +1694,9 @@
       <c r="F20" s="4"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1421,9 +1714,9 @@
       <c r="F21" s="4"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -1439,9 +1732,9 @@
       <c r="F22" s="4"/>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -1455,9 +1748,9 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -1477,9 +1770,9 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -1497,9 +1790,9 @@
       <c r="F25" s="4"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -1515,9 +1808,9 @@
       <c r="F26" s="4"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1533,9 +1826,9 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1551,9 +1844,9 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -1569,9 +1862,9 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1589,9 +1882,9 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -1607,9 +1900,9 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -1623,9 +1916,9 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -1639,9 +1932,9 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="4">
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -1657,9 +1950,9 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -1673,9 +1966,9 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -1689,9 +1982,9 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -1707,9 +2000,9 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="38" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -1725,9 +2018,9 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="19" t="s">
@@ -1741,9 +2034,9 @@
       <c r="F39" s="4"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -1757,9 +2050,9 @@
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -1774,9 +2067,9 @@
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="42" spans="1:7" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="4">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -1791,9 +2084,9 @@
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="4">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1810,9 +2103,9 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="4">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -1825,9 +2118,9 @@
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="4">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -1842,9 +2135,9 @@
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="4">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -1857,9 +2150,9 @@
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="4">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -1872,9 +2165,9 @@
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="4">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -1889,9 +2182,9 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="4">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -1904,9 +2197,9 @@
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="4">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1923,9 +2216,9 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="4">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -1940,9 +2233,9 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="4">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -1957,9 +2250,9 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="4">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -1974,9 +2267,9 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="4">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -1989,9 +2282,9 @@
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="4">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -2004,9 +2297,9 @@
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="4">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -2019,9 +2312,9 @@
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -2036,9 +2329,9 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2053,9 +2346,9 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -2070,9 +2363,9 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="60" spans="1:6" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -2085,9 +2378,9 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -2100,9 +2393,9 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -2112,12 +2405,14 @@
         <v>173</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="5">
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -2130,9 +2425,9 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="5">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -2145,9 +2440,9 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -2157,12 +2452,14 @@
         <v>179</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
+        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -2172,23 +2469,29 @@
         <v>181</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
@@ -2197,9 +2500,9 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
@@ -2208,9 +2511,9 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="4"/>
@@ -2219,9 +2522,9 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
@@ -2230,9 +2533,9 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
@@ -2241,9 +2544,9 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="5">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="4"/>
@@ -2252,9 +2555,9 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="5">
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="4"/>
@@ -2263,9 +2566,9 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="4"/>
@@ -2274,9 +2577,9 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5">
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="4"/>
@@ -2285,9 +2588,9 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="5">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="4"/>
@@ -2296,9 +2599,9 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="4"/>
@@ -2307,9 +2610,9 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="4"/>
@@ -2318,9 +2621,9 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="4"/>
@@ -2329,9 +2632,9 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="4"/>
@@ -2340,9 +2643,9 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="4"/>
@@ -2351,9 +2654,9 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="5">
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="4"/>
@@ -2362,9 +2665,9 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" s="5">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="4"/>
@@ -2373,9 +2676,9 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="5">
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="4"/>
@@ -2384,9 +2687,9 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="5">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="4"/>
@@ -2395,9 +2698,9 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="5">
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="4"/>
@@ -2406,9 +2709,9 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="5">
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="4"/>
@@ -2417,9 +2720,9 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="5">
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="4"/>
@@ -2428,9 +2731,9 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="5">
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="4"/>
@@ -2439,9 +2742,9 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
-    <row r="91" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" s="5">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="4"/>
@@ -2450,9 +2753,9 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" s="5">
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="4"/>
@@ -2461,9 +2764,9 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="5">
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="4"/>
@@ -2472,9 +2775,9 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="5">
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="4"/>
@@ -2483,9 +2786,9 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" s="5">
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="4"/>
@@ -2494,9 +2797,9 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="5">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="4"/>
@@ -2505,9 +2808,9 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" s="5">
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="4"/>
@@ -2516,9 +2819,9 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="5">
+        <f t="shared" ref="A98:A128" si="3">ROW()-1</f>
         <v>97</v>
       </c>
       <c r="B98" s="4"/>
@@ -2527,9 +2830,9 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" s="5">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="4"/>
@@ -2538,9 +2841,9 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
     </row>
-    <row r="100" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="5">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="4"/>
@@ -2549,9 +2852,9 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="4"/>
@@ -2560,9 +2863,9 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="5">
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="4"/>
@@ -2571,9 +2874,9 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="5">
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="4"/>
@@ -2582,9 +2885,9 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="5">
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="4"/>
@@ -2593,9 +2896,9 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="5">
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="4"/>
@@ -2604,9 +2907,9 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="5">
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" s="4"/>
@@ -2615,9 +2918,9 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="5">
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" s="4"/>
@@ -2626,9 +2929,9 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
     </row>
-    <row r="108" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="5">
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" s="4"/>
@@ -2637,9 +2940,9 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
     </row>
-    <row r="109" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="5">
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" s="4"/>
@@ -2648,9 +2951,9 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
     </row>
-    <row r="110" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="5">
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" s="4"/>
@@ -2659,9 +2962,9 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
     </row>
-    <row r="111" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="5">
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" s="4"/>
@@ -2670,9 +2973,9 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="5">
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" s="4"/>
@@ -2681,9 +2984,9 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="5">
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" s="4"/>
@@ -2692,9 +2995,9 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="5">
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" s="4"/>
@@ -2703,9 +3006,9 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="5">
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" s="4"/>
@@ -2714,9 +3017,9 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
     </row>
-    <row r="116" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="5">
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" s="4"/>
@@ -2725,9 +3028,9 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="5">
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" s="4"/>
@@ -2736,9 +3039,9 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="5">
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" s="4"/>
@@ -2747,9 +3050,9 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="5">
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" s="4"/>
@@ -2758,9 +3061,9 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
     </row>
-    <row r="120" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="5">
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" s="4"/>
@@ -2769,9 +3072,9 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="5">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" s="4"/>
@@ -2780,9 +3083,9 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="5">
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" s="4"/>
@@ -2791,9 +3094,9 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
     </row>
-    <row r="123" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="5">
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" s="4"/>
@@ -2802,9 +3105,9 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="5">
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" s="4"/>
@@ -2813,9 +3116,9 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="5">
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" s="4"/>
@@ -2824,9 +3127,9 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
     </row>
-    <row r="126" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="5">
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" s="4"/>
@@ -2835,9 +3138,9 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="5">
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" s="4"/>
@@ -2846,9 +3149,9 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="n">
-        <f aca="false">ROW()-1</f>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="5">
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" s="4"/>
@@ -2857,315 +3160,315 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
     </row>
-    <row r="129" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
     </row>
-    <row r="130" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
     </row>
-    <row r="131" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
     </row>
-    <row r="132" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
     </row>
-    <row r="133" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
     </row>
-    <row r="134" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
     </row>
-    <row r="135" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
     </row>
-    <row r="136" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
     </row>
-    <row r="137" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
     </row>
-    <row r="138" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
     </row>
-    <row r="139" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
     </row>
-    <row r="140" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
     </row>
-    <row r="141" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
     </row>
-    <row r="142" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
-    <row r="143" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
-    <row r="144" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
-    <row r="145" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
     </row>
-    <row r="147" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
     </row>
-    <row r="148" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
     </row>
-    <row r="149" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
     </row>
-    <row r="150" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
     </row>
-    <row r="151" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
-    <row r="153" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
-    <row r="154" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
-    <row r="155" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
-    <row r="156" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
     </row>
-    <row r="157" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
     </row>
-    <row r="158" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
     </row>
-    <row r="159" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
     </row>
-    <row r="160" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
     </row>
-    <row r="161" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
     </row>
-    <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
     </row>
-    <row r="163" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
     </row>
-    <row r="164" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
     </row>
-    <row r="165" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
     </row>
-    <row r="166" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
     </row>
-    <row r="167" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
     </row>
-    <row r="168" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
     </row>
-    <row r="169" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
     </row>
-    <row r="170" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
     </row>
-    <row r="171" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
     </row>
-    <row r="172" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
     </row>
-    <row r="173" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -3173,46 +3476,36 @@
       <c r="F173" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="https://ejje.weblio.jp/content/context"/>
-    <hyperlink ref="F13" r:id="rId2" display="https://www.weblio.jp/content/%E3%83%87%E3%83%97%E3%83%AD%E3%82%A4"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFA9D18E"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.39"/>
+    <col min="1" max="1025" width="8.375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -618,6 +618,12 @@
   </si>
   <si>
     <t xml:space="preserve">崩壊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">参照する</t>
   </si>
 </sst>
 </file>
@@ -982,9 +988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -998,7 +1004,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3136680" cy="4200840"/>
+          <a:ext cx="3138480" cy="4200120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1024,7 +1030,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C66" activeCellId="0" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2175,18 +2181,22 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>67</v>

--- a/Translation.xlsx
+++ b/Translation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="190">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -624,6 +624,24 @@
   </si>
   <si>
     <t xml:space="preserve">参照する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">インターネット上のあらゆるWebサイトの情報を取得して、検索用データベース・インデックスを作成する自動巡回プログラム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">表面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重複する</t>
   </si>
 </sst>
 </file>
@@ -803,7 +821,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -900,6 +918,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,9 +1014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1004,7 +1030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="3138480" cy="4200120"/>
+          <a:ext cx="3138120" cy="4199760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1028,9 +1054,9 @@
   <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="E64" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2196,46 +2222,58 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>67</v>
       </c>
-      <c r="B68" s="4"/>
+      <c r="B68" s="24" t="s">
+        <v>184</v>
+      </c>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>68</v>
       </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>69</v>
       </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="n">
         <f aca="false">ROW()-1</f>
         <v>70</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3208,7 +3246,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
